--- a/10반.xlsx
+++ b/10반.xlsx
@@ -456,8 +456,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>21023</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>21008</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>

--- a/10반.xlsx
+++ b/10반.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,28 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>자습</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>21012</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>자습실</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>자습</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>자습실</t>
         </is>
       </c>

--- a/10반.xlsx
+++ b/10반.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,44 +458,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>21008</t>
+          <t>21002</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>자습실</t>
+          <t>자습</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>자습</t>
+          <t>CIP2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>자습</t>
+          <t>CIP3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>21008</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>자습실</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>자습</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>자습</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>21012</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>자습실</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>자습</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>자습실</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>21022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>자습</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CIP2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>자습</t>
         </is>
       </c>
     </row>
